--- a/テスト仕様書/テスト仕様書_編集・削除画面.xlsx
+++ b/テスト仕様書/テスト仕様書_編集・削除画面.xlsx
@@ -8137,7 +8137,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B10" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/テスト仕様書/テスト仕様書_編集・削除画面.xlsx
+++ b/テスト仕様書/テスト仕様書_編集・削除画面.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" activeTab="6"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970"/>
   </bookViews>
   <sheets>
     <sheet name="名前" sheetId="16" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="328">
   <si>
     <t>小項目</t>
     <rPh sb="0" eb="3">
@@ -376,10 +376,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>図書カード番号：1111111111</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面メッセージ：[10字で入力してください。]と表示されること
 図書カード番号入力欄：背景が赤く表示されること。</t>
     <rPh sb="24" eb="26">
@@ -388,38 +384,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>利用者情報 編集・削除 画面へ遷移すること</t>
-    <rPh sb="0" eb="5">
-      <t>リヨウシャジョウホウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面遷移先チェック</t>
     <rPh sb="0" eb="5">
       <t>ガメンセンイサキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>戻るボタン押下</t>
-    <rPh sb="0" eb="1">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>オウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -811,14 +778,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面メッセージ：[10字で入力してください。]と表示されること
-名前入力欄：背景が赤く表示されること。</t>
-    <rPh sb="24" eb="26">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面メッセージ：[入力できない文字が含まれています。]と表示されること
 名前入力欄：背景が赤く表示されること。</t>
     <rPh sb="28" eb="30">
@@ -874,9 +833,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>名前：＠＠＠</t>
-  </si>
-  <si>
     <t>名前：コイズ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -954,18 +910,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>電話番号：AAA</t>
-  </si>
-  <si>
-    <t>電話番号：000</t>
-  </si>
-  <si>
-    <t>電話番号：@@@</t>
-  </si>
-  <si>
-    <t>電話番号：ｱｲｳ</t>
-  </si>
-  <si>
     <t>電話番号入力形式チェック(全角)</t>
     <rPh sb="4" eb="6">
       <t>ニュウリョク</t>
@@ -977,21 +921,6 @@
       <t>ゼンカク</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>電話番号：ｆｈｊ</t>
-  </si>
-  <si>
-    <t>電話番号：５５５</t>
-  </si>
-  <si>
-    <t>電話番号：＠＠＠</t>
-  </si>
-  <si>
-    <t>電話番号：コイズ</t>
-  </si>
-  <si>
-    <t>電話番号：ほしぞ</t>
   </si>
   <si>
     <t>電話番号：西木野</t>
@@ -1114,10 +1043,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>電話番号：09012341234</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>電話番号：0</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1285,10 +1210,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>電話番号：0120</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>電話番号：010</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1323,14 +1244,6 @@
   </si>
   <si>
     <t>電話番号：0436123123</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>電話番号：090123412345</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>郵便番号：あああああああああああああああああああああああああああああああああああああああああああああああああああああああああああああああ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1364,14 +1277,6 @@
     <rPh sb="30" eb="32">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>郵便番号：ああああああああああああああああああああああああああああああああああああああああああああああああああああああああああああああああ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>郵便番号：あああああああああああああああああああああああああああああああああああああああああああああああああああああああああああああああああ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1383,14 +1288,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>郵便番号：あ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>郵便番号：ああ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>郵便番号入力形式チェック(半角)</t>
     <rPh sb="4" eb="6">
       <t>ニュウリョク</t>
@@ -1404,16 +1301,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>郵便番号：AAA</t>
-  </si>
-  <si>
     <t>郵便番号：000</t>
-  </si>
-  <si>
-    <t>郵便番号：@@@</t>
-  </si>
-  <si>
-    <t>郵便番号：ｱｲｳ</t>
   </si>
   <si>
     <t>郵便番号入力形式チェック(全角)</t>
@@ -1427,18 +1315,6 @@
       <t>ゼンカク</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>郵便番号：ｆｈｊ</t>
-  </si>
-  <si>
-    <t>郵便番号：５５５</t>
-  </si>
-  <si>
-    <t>郵便番号：＠＠＠</t>
-  </si>
-  <si>
-    <t>郵便番号：コイズ</t>
   </si>
   <si>
     <t>郵便番号：ほしぞ</t>
@@ -1651,16 +1527,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>市区町村：AAA</t>
-  </si>
-  <si>
     <t>市区町村：000</t>
-  </si>
-  <si>
-    <t>市区町村：@@@</t>
-  </si>
-  <si>
-    <t>市区町村：ｱｲｳ</t>
   </si>
   <si>
     <t>市区町村入力形式チェック(全角)</t>
@@ -1674,18 +1541,6 @@
       <t>ゼンカク</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>市区町村：ｆｈｊ</t>
-  </si>
-  <si>
-    <t>市区町村：５５５</t>
-  </si>
-  <si>
-    <t>市区町村：＠＠＠</t>
-  </si>
-  <si>
-    <t>市区町村：コイズ</t>
   </si>
   <si>
     <t>市区町村：ほしぞ</t>
@@ -1788,9 +1643,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>番地：あ</t>
-  </si>
-  <si>
     <t>番地：ああ</t>
   </si>
   <si>
@@ -1810,15 +1662,6 @@
     <t>番地：AAA</t>
   </si>
   <si>
-    <t>番地：000</t>
-  </si>
-  <si>
-    <t>番地：@@@</t>
-  </si>
-  <si>
-    <t>番地：ｱｲｳ</t>
-  </si>
-  <si>
     <t>番地入力形式チェック(全角)</t>
     <rPh sb="2" eb="4">
       <t>ニュウリョク</t>
@@ -1830,21 +1673,6 @@
       <t>ゼンカク</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>番地：ｆｈｊ</t>
-  </si>
-  <si>
-    <t>番地：５５５</t>
-  </si>
-  <si>
-    <t>番地：＠＠＠</t>
-  </si>
-  <si>
-    <t>番地：コイズ</t>
-  </si>
-  <si>
-    <t>番地：ほしぞ</t>
   </si>
   <si>
     <t>番地：西木野</t>
@@ -1874,10 +1702,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マンション名 部屋番号等：あああああああああああああああああああああああああああああああああああああああああああああああああああああああああああああああ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>マンション名 部屋番号等を入力する</t>
     <rPh sb="13" eb="15">
       <t>ニュウリョク</t>
@@ -1916,14 +1740,6 @@
   </si>
   <si>
     <t>マンション名 部屋番号等：あああああああああああああああああああああああああああああああああああああああああああああああああああああああああああああああああ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面メッセージ：[10字で入力してください。]と表示されること
-マンション名 部屋番号等入力欄：背景が赤く表示されること。</t>
-    <rPh sb="24" eb="26">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1968,18 +1784,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マンション名 部屋番号等：AAA</t>
-  </si>
-  <si>
-    <t>マンション名 部屋番号等：000</t>
-  </si>
-  <si>
-    <t>マンション名 部屋番号等：@@@</t>
-  </si>
-  <si>
-    <t>マンション名 部屋番号等：ｱｲｳ</t>
-  </si>
-  <si>
     <t>マンション名 部屋番号等入力形式チェック(全角)</t>
     <rPh sb="12" eb="14">
       <t>ニュウリョク</t>
@@ -1991,21 +1795,6 @@
       <t>ゼンカク</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マンション名 部屋番号等：ｆｈｊ</t>
-  </si>
-  <si>
-    <t>マンション名 部屋番号等：５５５</t>
-  </si>
-  <si>
-    <t>マンション名 部屋番号等：＠＠＠</t>
-  </si>
-  <si>
-    <t>マンション名 部屋番号等：コイズ</t>
-  </si>
-  <si>
-    <t>マンション名 部屋番号等：ほしぞ</t>
   </si>
   <si>
     <t>マンション名 部屋番号等：西木野</t>
@@ -2180,29 +1969,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>名前:[未入力]
-その他：DBから取得した値が入力されている</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>編集・削除画面に遷移時、DBから取得した値が各入力欄に表示されていること</t>
     <rPh sb="0" eb="2">
       <t>ヘンシュウ</t>
@@ -2359,26 +2125,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>名前:000
-その他：DBから取得した値が入力されている</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>電話番号の入力フォームのみ正常入力</t>
     <rPh sb="5" eb="7">
       <t>ニュウリョク</t>
@@ -2395,26 +2141,6 @@
     </rPh>
     <rPh sb="13" eb="16">
       <t>ミニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>電話番号:[未入力]
-その他：DBから取得した値が入力されている</t>
-    <rPh sb="6" eb="9">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2475,34 +2201,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>電話番号:01012341234
-その他：エラー入力</t>
-    <rPh sb="19" eb="20">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>電話番号:あいうえお
-その他：DBから取得した値が入力されている</t>
-    <rPh sb="13" eb="14">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>郵便番号の入力フォームのみ正常入力</t>
     <rPh sb="5" eb="7">
       <t>ニュウリョク</t>
@@ -2523,94 +2221,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>郵便番号:[未入力]
-その他：DBから取得した値が入力されている</t>
-    <rPh sb="6" eb="9">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>郵便番号の入力フォームのみエラー入力</t>
     <rPh sb="5" eb="7">
       <t>ニュウリョク</t>
     </rPh>
     <rPh sb="16" eb="18">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>郵便番号:あいうえお
-その他：DBから取得した値が入力されている</t>
-    <rPh sb="13" eb="14">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>郵便番号の入力フォームにDBから取得した値と
-異なら値を入力</t>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>郵便番号：DBから取得した値と違う値を入力
-その他：DBから取得した値が入力されている</t>
-    <rPh sb="9" eb="11">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>チガ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2647,48 +2262,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>市区町村:[未入力]
-その他：DBから取得した値が入力されている</t>
-    <rPh sb="6" eb="9">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>市区町村の入力フォームのみエラー入力</t>
     <rPh sb="5" eb="7">
       <t>ニュウリョク</t>
     </rPh>
     <rPh sb="16" eb="18">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>市区町村:000
-その他：DBから取得した値が入力されている</t>
-    <rPh sb="11" eb="12">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2777,26 +2355,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>番地:[未入力]
-その他：DBから取得した値が入力されている</t>
-    <rPh sb="4" eb="7">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>番地の入力フォームのみエラー入力</t>
     <rPh sb="3" eb="5">
       <t>ニュウリョク</t>
@@ -2884,77 +2442,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マンション名 部屋番号等:[未入力]
-その他：DBから取得した値が入力されている</t>
-    <rPh sb="14" eb="17">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>マンション名 部屋番号等の入力フォームのみエラー入力</t>
     <rPh sb="13" eb="15">
       <t>ニュウリョク</t>
     </rPh>
     <rPh sb="24" eb="26">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マンション名 部屋番号等の入力フォームにDBから取得した値と
-異なら値を入力</t>
-    <rPh sb="13" eb="15">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マンション名 部屋番号等：DBから取得した値と違う値を入力
-その他：DBから取得した値が入力されている</t>
-    <rPh sb="17" eb="19">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>チガ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2971,23 +2463,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マンション名 部屋番号等:/\
-その他：DBから取得した値が入力されている</t>
-    <rPh sb="18" eb="19">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>エラー入力がないためテスト不可</t>
     <rPh sb="3" eb="5">
       <t>ニュウリョク</t>
@@ -3312,24 +2787,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エラ-ポップアップが出ること。
-ポップアップに[利用者情報が存在しません]と表示されること
-図書カード番号入力欄：背景が赤く表示されること。</t>
-    <rPh sb="10" eb="11">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>リヨウシャ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ソンザイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>更新ボタン(ポップアップ)</t>
     <rPh sb="0" eb="2">
       <t>コウシン</t>
@@ -3347,6 +2804,517 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前：＠＠＠</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下限チェック　0文字(-1)と同じテストのため省略</t>
+    <rPh sb="0" eb="2">
+      <t>カゲン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショウリャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力形式チェックのエラー時と同じテストのため省略</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショウリャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力形式チェック(エスケープ文字)と同じテストのため省略</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショウリャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電話番号：09012341234</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電話番号：090123412345</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電話番号：AAA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電話番号：000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電話番号：@@@</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電話番号：ｆｈｊ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電話番号：ｱｲｳ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電話番号：５５５</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電話番号：＠＠＠</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電話番号：コイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電話番号：ほしぞ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電話番号：0120</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電話番号:00012341234
+その他：エラー入力</t>
+    <rPh sb="19" eb="20">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号：000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号：0000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号：00000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号：0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号：[未入力]</t>
+    <rPh sb="6" eb="9">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号：AAA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号：@@@</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号：ｱｲｳ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号：ｆｈｊ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号：５５５</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号：＠＠＠</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号：コイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下限チェック　0文字(下限と同値)と同じテストのため省略</t>
+    <rPh sb="0" eb="2">
+      <t>カゲン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カゲン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ドウチ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショウリャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面メッセージ:表示されないこと
+電話番号入力欄：背景が赤く表示されること。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面メッセージ:表示されないこと
+市区町村入力欄：背景が赤く表示されること。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市区町村：AAA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市区町村：@@@</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市区町村：ｱｲｳ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市区町村：ｆｈｊ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市区町村：５５５</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市区町村：＠＠＠</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市区町村：コイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面メッセージ:表示されないこと
+番地入力欄：背景が赤く表示されること。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>番地：あ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>番地：000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>番地：@@@</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>番地：ｱｲｳ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>番地：ｆｈｊ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>番地：５５５</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>番地：＠＠＠</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>番地：コイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>番地：ほしぞ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マンション名 部屋番号等：あああああああああああああああああああああああああああああああああああああああああああああああああああああああああああああああ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マンション名 部屋番号等：AAA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マンション名 部屋番号等：000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マンション名 部屋番号等：@@@</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マンション名 部屋番号等：ｱｲｳ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マンション名 部屋番号等：ｆｈｊ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マンション名 部屋番号等：５５５</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マンション名 部屋番号等：＠＠＠</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マンション名 部屋番号等：コイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マンション名 部屋番号等：ほしぞ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新ボタン：活性</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図書カード番号：1234567890でログインする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図書カード番号：1111111111でログイン後、登録情報を削除する</t>
+    <rPh sb="23" eb="24">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>トウロクジョウホウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除ボタン(ポップアップ)</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新ボタン(ポップアップ)押下</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除ボタン(ポップアップ)押下</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻るボタン(ポップアップ)押下</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新ボタン(ポップアップ)押下/削除ボタン(ポップアップ)押下</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポップアップが出ること。
+ポップアップ[更新/削除が完了しました]が表示されること</t>
+    <rPh sb="7" eb="8">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラ-ポップアップが出ること。
+ポップアップに[利用者情報が存在しません]と表示されること</t>
+    <rPh sb="10" eb="11">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面メッセージ：[64字以内で入力してください。]と表示されること
+名前入力欄：背景が赤く表示されること。</t>
+    <rPh sb="12" eb="14">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面メッセージ：[64字以内で入力してください。]と表示されること
+マンション名 部屋番号等入力欄：背景が赤く表示されること。</t>
+    <rPh sb="12" eb="14">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4090,6 +4058,15 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4113,15 +4090,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4429,8 +4397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4447,25 +4415,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="55"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="58"/>
       <c r="H1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
+      <c r="A2" s="52"/>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -4496,20 +4464,20 @@
         <v>8</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E3" s="38"/>
       <c r="F3" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4520,20 +4488,20 @@
         <v>8</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E4" s="38"/>
       <c r="F4" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4544,20 +4512,20 @@
         <v>8</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>77</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4568,20 +4536,20 @@
         <v>8</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E6" s="38"/>
       <c r="F6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="H6" s="29" t="s">
         <v>74</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4592,20 +4560,20 @@
         <v>8</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4616,20 +4584,20 @@
         <v>8</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="27" t="s">
         <v>73</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4640,20 +4608,20 @@
         <v>22</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4664,20 +4632,20 @@
         <v>23</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="23" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G10" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="29" t="s">
         <v>74</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4688,20 +4656,20 @@
         <v>23</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="23" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G11" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="29" t="s">
         <v>74</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4712,20 +4680,20 @@
         <v>23</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="38"/>
       <c r="F12" s="23" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G12" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="29" t="s">
         <v>74</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4736,20 +4704,20 @@
         <v>23</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="24" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G13" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="29" t="s">
         <v>74</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4760,20 +4728,20 @@
         <v>21</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G14" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="29" t="s">
         <v>74</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4784,20 +4752,20 @@
         <v>21</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="24" t="s">
-        <v>87</v>
+        <v>257</v>
       </c>
       <c r="G15" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="29" t="s">
         <v>74</v>
-      </c>
-      <c r="H15" s="29" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4808,20 +4776,20 @@
         <v>21</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="38"/>
       <c r="F16" s="24" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4832,20 +4800,20 @@
         <v>21</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="38"/>
       <c r="F17" s="24" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4856,20 +4824,20 @@
         <v>21</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D18" s="36" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="24" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4880,20 +4848,20 @@
         <v>21</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D19" s="42" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="31" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4911,23 +4879,23 @@
         <v>18</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>262</v>
+        <v>205</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>260</v>
+        <v>203</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>261</v>
+        <v>204</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="27" t="s">
-        <v>253</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4935,71 +4903,63 @@
         <v>19</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>251</v>
+        <v>195</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>254</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="27" t="s">
-        <v>253</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="F22" s="48"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="44"/>
     </row>
     <row r="23" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19">
         <v>20</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>263</v>
+        <v>206</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="27" t="s">
-        <v>253</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="F23" s="48"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="44"/>
     </row>
     <row r="24" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19">
         <v>21</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>251</v>
+        <v>195</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>258</v>
+        <v>201</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>257</v>
+        <v>200</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="27" t="s">
-        <v>259</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -5018,8 +4978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5036,25 +4996,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="55"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="58"/>
       <c r="H1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
+      <c r="A2" s="52"/>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -5085,20 +5045,20 @@
         <v>8</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E3" s="38"/>
       <c r="F3" s="9" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5109,20 +5069,20 @@
         <v>8</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="E4" s="38"/>
       <c r="F4" s="9" t="s">
-        <v>118</v>
+        <v>261</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5133,20 +5093,20 @@
         <v>8</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="9" t="s">
-        <v>145</v>
+        <v>262</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5157,20 +5117,20 @@
         <v>8</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="E6" s="38"/>
       <c r="F6" s="9" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5181,20 +5141,20 @@
         <v>8</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="9" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5205,20 +5165,20 @@
         <v>8</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="9" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5229,20 +5189,20 @@
         <v>22</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="23" t="s">
-        <v>96</v>
+        <v>263</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5253,20 +5213,20 @@
         <v>23</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="23" t="s">
-        <v>97</v>
+        <v>264</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5277,20 +5237,20 @@
         <v>23</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="23" t="s">
-        <v>98</v>
+        <v>265</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5301,20 +5261,20 @@
         <v>23</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="38"/>
       <c r="F12" s="23" t="s">
-        <v>99</v>
+        <v>267</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5325,20 +5285,20 @@
         <v>23</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="24" t="s">
-        <v>101</v>
+        <v>266</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5349,20 +5309,20 @@
         <v>21</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="24" t="s">
-        <v>102</v>
+        <v>268</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5373,20 +5333,20 @@
         <v>21</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="24" t="s">
-        <v>103</v>
+        <v>269</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5397,20 +5357,20 @@
         <v>21</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="38"/>
       <c r="F16" s="24" t="s">
-        <v>104</v>
+        <v>270</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5421,20 +5381,20 @@
         <v>21</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="38"/>
       <c r="F17" s="24" t="s">
-        <v>105</v>
+        <v>271</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5445,20 +5405,20 @@
         <v>21</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D18" s="36" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="24" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5469,20 +5429,20 @@
         <v>21</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D19" s="42" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="31" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5493,20 +5453,20 @@
         <v>21</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E20" s="38"/>
       <c r="F20" s="31" t="s">
-        <v>133</v>
+        <v>272</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5517,20 +5477,20 @@
         <v>21</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="E21" s="38"/>
       <c r="F21" s="31" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5541,20 +5501,20 @@
         <v>21</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E22" s="38"/>
       <c r="F22" s="31" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5565,20 +5525,20 @@
         <v>21</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="31" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5589,20 +5549,20 @@
         <v>21</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E24" s="38"/>
       <c r="F24" s="31" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5613,20 +5573,20 @@
         <v>21</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E25" s="38"/>
       <c r="F25" s="31" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5637,20 +5597,20 @@
         <v>21</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E26" s="38"/>
       <c r="F26" s="31" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5661,20 +5621,20 @@
         <v>21</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D27" s="42" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E27" s="38"/>
       <c r="F27" s="31" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5685,20 +5645,20 @@
         <v>21</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E28" s="38"/>
       <c r="F28" s="31" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5709,20 +5669,20 @@
         <v>21</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E29" s="38"/>
       <c r="F29" s="31" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5733,20 +5693,20 @@
         <v>21</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="E30" s="38"/>
       <c r="F30" s="31" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5764,23 +5724,23 @@
         <v>29</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>262</v>
+        <v>205</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>266</v>
+        <v>208</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="27" t="s">
-        <v>253</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5788,71 +5748,63 @@
         <v>30</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>251</v>
+        <v>195</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="E33" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="F33" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="27" t="s">
-        <v>253</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="E33" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="F33" s="48"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="44"/>
     </row>
     <row r="34" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="19">
         <v>31</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>263</v>
+        <v>206</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>269</v>
-      </c>
-      <c r="E34" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="27" t="s">
-        <v>253</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="E34" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="F34" s="48"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="44"/>
     </row>
     <row r="35" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="19">
         <v>32</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>251</v>
+        <v>195</v>
       </c>
       <c r="D35" s="38" t="s">
-        <v>270</v>
+        <v>211</v>
       </c>
       <c r="E35" s="38" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>271</v>
+        <v>212</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="27" t="s">
-        <v>259</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -5869,10 +5821,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5889,25 +5841,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="55"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="58"/>
       <c r="H1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
+      <c r="A2" s="52"/>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -5938,20 +5890,20 @@
         <v>8</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="E3" s="38"/>
       <c r="F3" s="9" t="s">
-        <v>146</v>
+        <v>274</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5962,20 +5914,20 @@
         <v>8</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="E4" s="38"/>
       <c r="F4" s="9" t="s">
-        <v>149</v>
+        <v>275</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5986,20 +5938,20 @@
         <v>8</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="9" t="s">
-        <v>150</v>
+        <v>276</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6010,13 +5962,13 @@
         <v>8</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>245</v>
+        <v>189</v>
       </c>
       <c r="F6" s="46"/>
       <c r="G6" s="43"/>
@@ -6030,20 +5982,20 @@
         <v>8</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="9" t="s">
-        <v>152</v>
+        <v>278</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6054,20 +6006,20 @@
         <v>8</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="9" t="s">
-        <v>153</v>
+        <v>277</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6078,20 +6030,20 @@
         <v>22</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="23" t="s">
-        <v>155</v>
+        <v>279</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6102,20 +6054,20 @@
         <v>23</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="23" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6126,20 +6078,20 @@
         <v>23</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="23" t="s">
-        <v>157</v>
+        <v>280</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6150,20 +6102,20 @@
         <v>23</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="38"/>
       <c r="F12" s="23" t="s">
-        <v>158</v>
+        <v>281</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6174,20 +6126,20 @@
         <v>23</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="24" t="s">
-        <v>160</v>
+        <v>282</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6198,20 +6150,20 @@
         <v>21</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="24" t="s">
-        <v>161</v>
+        <v>283</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6222,20 +6174,20 @@
         <v>21</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="24" t="s">
-        <v>162</v>
+        <v>284</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6246,20 +6198,20 @@
         <v>21</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="38"/>
       <c r="F16" s="24" t="s">
-        <v>163</v>
+        <v>285</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6270,20 +6222,20 @@
         <v>21</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="38"/>
       <c r="F17" s="24" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6294,20 +6246,20 @@
         <v>21</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="D18" s="36" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="24" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6318,20 +6270,20 @@
         <v>21</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="D19" s="42" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="31" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6349,23 +6301,23 @@
         <v>18</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>262</v>
+        <v>205</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>274</v>
+        <v>213</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>281</v>
+        <v>216</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="27" t="s">
-        <v>259</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6373,72 +6325,40 @@
         <v>19</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>251</v>
+        <v>195</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="27" t="s">
-        <v>259</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="F22" s="48"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="44"/>
     </row>
     <row r="23" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19">
         <v>10</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>263</v>
+        <v>206</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>277</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="27" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="19">
-        <v>21</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>279</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="E23" s="45" t="s">
         <v>259</v>
       </c>
+      <c r="F23" s="48"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6456,8 +6376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView topLeftCell="A16" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6474,25 +6394,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="55"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="58"/>
       <c r="H1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
+      <c r="A2" s="52"/>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -6523,13 +6443,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="F3" s="46"/>
       <c r="G3" s="43"/>
@@ -6543,20 +6463,20 @@
         <v>8</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E4" s="38"/>
       <c r="F4" s="9" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>178</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6567,20 +6487,20 @@
         <v>8</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="9" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6591,20 +6511,20 @@
         <v>8</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E6" s="38"/>
       <c r="F6" s="9" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6615,20 +6535,20 @@
         <v>22</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="23" t="s">
-        <v>184</v>
+        <v>289</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6639,20 +6559,20 @@
         <v>23</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="23" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6663,20 +6583,20 @@
         <v>23</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="23" t="s">
-        <v>186</v>
+        <v>290</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6687,20 +6607,20 @@
         <v>23</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="23" t="s">
-        <v>187</v>
+        <v>291</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6711,20 +6631,20 @@
         <v>23</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="24" t="s">
-        <v>189</v>
+        <v>292</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6735,20 +6655,20 @@
         <v>21</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="38"/>
       <c r="F12" s="24" t="s">
-        <v>190</v>
+        <v>293</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6759,20 +6679,20 @@
         <v>21</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="24" t="s">
-        <v>191</v>
+        <v>294</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6783,20 +6703,20 @@
         <v>21</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="24" t="s">
-        <v>192</v>
+        <v>295</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6807,20 +6727,20 @@
         <v>21</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="24" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6831,20 +6751,20 @@
         <v>21</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="D16" s="36" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="38"/>
       <c r="F16" s="24" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6855,20 +6775,20 @@
         <v>21</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="D17" s="42" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="38"/>
       <c r="F17" s="31" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6886,23 +6806,23 @@
         <v>16</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>262</v>
+        <v>205</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>282</v>
+        <v>217</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="27" t="s">
-        <v>253</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6910,71 +6830,63 @@
         <v>17</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>251</v>
+        <v>195</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>283</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>284</v>
-      </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="27" t="s">
-        <v>253</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="F20" s="48"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="44"/>
     </row>
     <row r="21" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19">
         <v>18</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>263</v>
+        <v>206</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>285</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="27" t="s">
-        <v>253</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="F21" s="48"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
     </row>
     <row r="22" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19">
         <v>19</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>251</v>
+        <v>195</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="27" t="s">
-        <v>259</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -6993,8 +6905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView topLeftCell="A16" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7011,25 +6923,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="55"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="58"/>
       <c r="H1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
+      <c r="A2" s="52"/>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -7060,13 +6972,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="F3" s="46"/>
       <c r="G3" s="43"/>
@@ -7080,20 +6992,20 @@
         <v>8</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E4" s="38"/>
       <c r="F4" s="9" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>200</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7104,20 +7016,20 @@
         <v>8</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="9" t="s">
-        <v>203</v>
+        <v>297</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7128,20 +7040,20 @@
         <v>8</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E6" s="38"/>
       <c r="F6" s="9" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7152,20 +7064,20 @@
         <v>22</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="23" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7176,20 +7088,20 @@
         <v>23</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="23" t="s">
-        <v>207</v>
+        <v>298</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7200,20 +7112,20 @@
         <v>23</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="23" t="s">
-        <v>208</v>
+        <v>299</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7224,20 +7136,20 @@
         <v>23</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="23" t="s">
-        <v>209</v>
+        <v>300</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7248,20 +7160,20 @@
         <v>23</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="24" t="s">
-        <v>211</v>
+        <v>301</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7272,20 +7184,20 @@
         <v>21</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="38"/>
       <c r="F12" s="24" t="s">
-        <v>212</v>
+        <v>302</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7296,20 +7208,20 @@
         <v>21</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="24" t="s">
-        <v>213</v>
+        <v>303</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7320,20 +7232,20 @@
         <v>21</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="24" t="s">
-        <v>214</v>
+        <v>304</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7344,20 +7256,20 @@
         <v>21</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="24" t="s">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7368,20 +7280,20 @@
         <v>21</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="D16" s="36" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="38"/>
       <c r="F16" s="24" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7392,20 +7304,20 @@
         <v>21</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="D17" s="42" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="38"/>
       <c r="F17" s="31" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7423,23 +7335,23 @@
         <v>16</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>262</v>
+        <v>205</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>296</v>
+        <v>228</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="27" t="s">
-        <v>253</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7447,42 +7359,38 @@
         <v>17</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>251</v>
+        <v>195</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>291</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>292</v>
-      </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="27" t="s">
-        <v>253</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="F20" s="48"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="44"/>
     </row>
     <row r="21" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19">
         <v>18</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>263</v>
+        <v>206</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>293</v>
+        <v>225</v>
       </c>
       <c r="E21" s="45" t="s">
-        <v>305</v>
-      </c>
-      <c r="F21" s="56"/>
+        <v>233</v>
+      </c>
+      <c r="F21" s="48"/>
       <c r="G21" s="43"/>
       <c r="H21" s="44"/>
     </row>
@@ -7491,23 +7399,23 @@
         <v>19</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>251</v>
+        <v>195</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>294</v>
+        <v>226</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>295</v>
+        <v>227</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="27" t="s">
-        <v>259</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -7524,10 +7432,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7544,25 +7452,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="55"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="58"/>
       <c r="H1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
+      <c r="A2" s="52"/>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -7593,20 +7501,20 @@
         <v>8</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E3" s="38"/>
       <c r="F3" s="9" t="s">
-        <v>219</v>
+        <v>306</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7617,20 +7525,20 @@
         <v>8</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E4" s="38"/>
       <c r="F4" s="9" t="s">
-        <v>222</v>
+        <v>176</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7641,20 +7549,20 @@
         <v>8</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="9" t="s">
-        <v>223</v>
+        <v>177</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>224</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7665,13 +7573,13 @@
         <v>8</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>241</v>
+        <v>185</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>245</v>
+        <v>189</v>
       </c>
       <c r="F6" s="46"/>
       <c r="G6" s="43"/>
@@ -7685,20 +7593,20 @@
         <v>8</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>242</v>
+        <v>186</v>
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="9" t="s">
-        <v>226</v>
+        <v>179</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7709,20 +7617,20 @@
         <v>8</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>243</v>
+        <v>187</v>
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="9" t="s">
-        <v>244</v>
+        <v>188</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7733,20 +7641,20 @@
         <v>22</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>228</v>
+        <v>181</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="23" t="s">
-        <v>229</v>
+        <v>307</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7757,20 +7665,20 @@
         <v>23</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>228</v>
+        <v>181</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="23" t="s">
-        <v>230</v>
+        <v>308</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7781,20 +7689,20 @@
         <v>23</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>228</v>
+        <v>181</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="23" t="s">
-        <v>231</v>
+        <v>309</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7805,20 +7713,20 @@
         <v>23</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>228</v>
+        <v>181</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="38"/>
       <c r="F12" s="23" t="s">
-        <v>232</v>
+        <v>310</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7829,20 +7737,20 @@
         <v>23</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>233</v>
+        <v>182</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="24" t="s">
-        <v>234</v>
+        <v>311</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7853,20 +7761,20 @@
         <v>21</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>233</v>
+        <v>182</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="24" t="s">
-        <v>235</v>
+        <v>312</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7877,20 +7785,20 @@
         <v>21</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>233</v>
+        <v>182</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="24" t="s">
-        <v>236</v>
+        <v>313</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7901,20 +7809,20 @@
         <v>21</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>233</v>
+        <v>182</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="38"/>
       <c r="F16" s="24" t="s">
-        <v>237</v>
+        <v>314</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7925,20 +7833,20 @@
         <v>21</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>233</v>
+        <v>182</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="38"/>
       <c r="F17" s="24" t="s">
-        <v>238</v>
+        <v>315</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7949,20 +7857,20 @@
         <v>21</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>233</v>
+        <v>182</v>
       </c>
       <c r="D18" s="36" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="24" t="s">
-        <v>239</v>
+        <v>183</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7973,20 +7881,20 @@
         <v>21</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>233</v>
+        <v>182</v>
       </c>
       <c r="D19" s="42" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="31" t="s">
-        <v>240</v>
+        <v>184</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7997,20 +7905,20 @@
         <v>21</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>246</v>
+        <v>190</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>247</v>
+        <v>191</v>
       </c>
       <c r="E20" s="38"/>
       <c r="F20" s="31" t="s">
-        <v>248</v>
+        <v>192</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>227</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8028,23 +7936,23 @@
         <v>19</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>262</v>
+        <v>205</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>297</v>
+        <v>229</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>303</v>
+        <v>232</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="27" t="s">
-        <v>253</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8052,72 +7960,40 @@
         <v>20</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>251</v>
+        <v>195</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>298</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>299</v>
-      </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="27" t="s">
-        <v>259</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="F23" s="48"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="44"/>
     </row>
     <row r="24" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19">
         <v>21</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>263</v>
+        <v>206</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="27" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="19">
-        <v>22</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>301</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>302</v>
-      </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="27" t="s">
-        <v>259</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="F24" s="48"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8136,8 +8012,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8148,31 +8024,31 @@
     <col min="4" max="4" width="41.26953125" style="13" customWidth="1"/>
     <col min="5" max="5" width="78.7265625" style="13" customWidth="1"/>
     <col min="6" max="6" width="43.7265625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="44.81640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="51.90625" style="13" customWidth="1"/>
     <col min="8" max="8" width="68" style="13" customWidth="1"/>
     <col min="9" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="55"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="58"/>
       <c r="H1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
+      <c r="A2" s="52"/>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -8200,67 +8076,67 @@
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>262</v>
-      </c>
-      <c r="D3" s="57" t="s">
-        <v>309</v>
+        <v>193</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>237</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>308</v>
+        <v>236</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="29" t="s">
-        <v>253</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>310</v>
+        <v>205</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>238</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>312</v>
+        <v>240</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="29" t="s">
-        <v>253</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="D5" s="57" t="s">
-        <v>252</v>
+        <v>195</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>196</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>307</v>
+        <v>235</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="27" t="s">
@@ -8269,31 +8145,31 @@
     </row>
     <row r="6" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>306</v>
+        <v>206</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>234</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>311</v>
+        <v>239</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>5</v>
@@ -8304,20 +8180,22 @@
       <c r="D7" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="38"/>
+      <c r="E7" s="38" t="s">
+        <v>317</v>
+      </c>
       <c r="F7" s="25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>40</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>5</v>
@@ -8328,252 +8206,252 @@
       <c r="D8" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="25" t="s">
-        <v>38</v>
-      </c>
+      <c r="E8" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="F8" s="25"/>
       <c r="G8" s="11" t="s">
-        <v>313</v>
+        <v>241</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>320</v>
+        <v>248</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>321</v>
+        <v>249</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="37" t="s">
-        <v>323</v>
+        <v>251</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>325</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>319</v>
+        <v>247</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>322</v>
+        <v>250</v>
       </c>
       <c r="F10" s="34"/>
       <c r="G10" s="37" t="s">
-        <v>324</v>
+        <v>252</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>326</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21">
-        <v>24</v>
+      <c r="A11" s="19">
+        <v>9</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>314</v>
+        <v>255</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>317</v>
+        <v>246</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="37" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>318</v>
+        <v>246</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="37" t="s">
-        <v>42</v>
+        <v>321</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>328</v>
+        <v>244</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>318</v>
+        <v>246</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="37" t="s">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>43</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21">
-        <v>25</v>
+      <c r="A14" s="19">
+        <v>12</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>316</v>
+        <v>242</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>318</v>
+        <v>245</v>
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="37" t="s">
-        <v>42</v>
+        <v>243</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>329</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="39" t="s">
         <v>41</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>44</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="34"/>
       <c r="G15" s="37" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="34"/>
       <c r="G16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="27" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="17" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21">
-        <v>28</v>
+      <c r="A17" s="19">
+        <v>15</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="34"/>
       <c r="G17" s="37" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="34"/>
       <c r="G18" s="37" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>13</v>
@@ -8582,10 +8460,10 @@
         <v>24</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F19" s="34" t="s">
         <v>26</v>
@@ -8594,12 +8472,12 @@
         <v>25</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21">
-        <v>31</v>
+      <c r="A20" s="19">
+        <v>18</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>13</v>
@@ -8611,7 +8489,7 @@
         <v>27</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F20" s="34" t="s">
         <v>28</v>
@@ -8620,12 +8498,12 @@
         <v>25</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>13</v>
@@ -8637,7 +8515,7 @@
         <v>29</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F21" s="34" t="s">
         <v>30</v>
@@ -8646,12 +8524,12 @@
         <v>25</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>13</v>
@@ -8663,7 +8541,7 @@
         <v>31</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F22" s="34" t="s">
         <v>32</v>
@@ -8672,7 +8550,7 @@
         <v>25</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/テスト仕様書/テスト仕様書_編集・削除画面.xlsx
+++ b/テスト仕様書/テスト仕様書_編集・削除画面.xlsx
@@ -2,9 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m0119299f7\Desktop\library_yasuda\テスト仕様書\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="名前" sheetId="16" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="333">
   <si>
     <t>小項目</t>
     <rPh sb="0" eb="3">
@@ -344,46 +349,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面メッセージ:表示されないこと
-図書カード番号入力欄：背景が白く表示されること。</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>トショ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ハイケイ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>シロ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面メッセージ：[10字で入力してください。]と表示されること
-図書カード番号入力欄：背景が赤く表示されること。</t>
-    <rPh sb="24" eb="26">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面遷移先チェック</t>
     <rPh sb="0" eb="5">
       <t>ガメンセンイサキ</t>
@@ -805,10 +770,6 @@
     <t>名前：000</t>
   </si>
   <si>
-    <t>名前：@@@</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>名前：ｱｲｳ</t>
   </si>
   <si>
@@ -829,15 +790,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>名前：５５５</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>名前：コイズ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前：ほしぞ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2589,23 +2542,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>完了ボタン</t>
-    <rPh sb="0" eb="2">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>完了ボタン押下</t>
-    <rPh sb="0" eb="2">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>戻るボタン(ポップアップ)</t>
     <rPh sb="0" eb="1">
       <t>モド</t>
@@ -2636,37 +2572,6 @@
       <t>デ</t>
     </rPh>
     <rPh sb="34" eb="36">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全ての入力値が正常値かつ、更新ボタン/削除ボタン押下後にポップアップがが出ている状態</t>
-    <rPh sb="0" eb="1">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>セイジョウチ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
       <t>ジョウタイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2808,10 +2713,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>名前：＠＠＠</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>下限チェック　0文字(-1)と同じテストのため省略</t>
     <rPh sb="0" eb="2">
       <t>カゲン</t>
@@ -2863,10 +2764,6 @@
     <rPh sb="26" eb="28">
       <t>ショウリャク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>電話番号：09012341234</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3140,10 +3037,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マンション名 部屋番号等：あああああああああああああああああああああああああああああああああああああああああああああああああああああああああああああああ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>マンション名 部屋番号等：AAA</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3240,42 +3133,6 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>更新ボタン(ポップアップ)押下/削除ボタン(ポップアップ)押下</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ポップアップが出ること。
-ポップアップ[更新/削除が完了しました]が表示されること</t>
-    <rPh sb="7" eb="8">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3315,6 +3172,223 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前：@@@</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前：５５５</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前：＠＠＠</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カタカナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前：ほしぞ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新ボタン活性化チェック(取得した値と異なる値)</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>カッセイカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電話番号：09012341234</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力文字判別網羅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポップアップが出ること。
+ポップアップに[削除が完了しました]が表示されること</t>
+    <rPh sb="7" eb="8">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻るボタン(完了ポップアップ)</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マンション名 部屋番号等：あああああああああああああああああああああああああああああああああああああああああああああああああああああああああああああああ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻るボタン(完了ポップアップ)押下</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全ての入力値が正常値かつ、更新ボタン/削除ボタン押下後にポップアップが出ている状態</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>セイジョウチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全ての入力値が正常値かつ、更新ボタン/削除ボタン押下後にポップアップが出ている状態かつ、
+電話番号の入力形式が正しくない場合</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>セイジョウチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="45" eb="49">
+      <t>デンワバンゴウ</t>
+    </rPh>
+    <rPh sb="50" eb="54">
+      <t>ニュウリョクケイシキ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポップアップが出ること。
+ポップアップに[電話番号を正しく入力してください]が表示されること</t>
+    <rPh sb="7" eb="8">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>デンワバンゴウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポップアップ出現チェック</t>
+    <rPh sb="6" eb="8">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポップアップが出ること。
+ポップアップ[更新が完了しました]が表示されること</t>
+    <rPh sb="7" eb="8">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図書カード番号存在チェックと同じ処理なので省略</t>
+    <rPh sb="14" eb="15">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ショウリャク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3915,7 +3989,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4090,6 +4164,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4395,17 +4478,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="13"/>
     <col min="2" max="2" width="16.90625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="39.36328125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="43" style="13" customWidth="1"/>
     <col min="4" max="4" width="41.26953125" style="13" customWidth="1"/>
     <col min="5" max="5" width="69.6328125" style="13" customWidth="1"/>
     <col min="6" max="6" width="41.36328125" style="13" customWidth="1"/>
@@ -4464,20 +4548,20 @@
         <v>8</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" s="38"/>
       <c r="F3" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="27" t="s">
         <v>71</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4488,20 +4572,20 @@
         <v>8</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E4" s="38"/>
       <c r="F4" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="27" t="s">
         <v>71</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4512,20 +4596,20 @@
         <v>8</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4536,20 +4620,20 @@
         <v>8</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E6" s="38"/>
       <c r="F6" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4560,20 +4644,20 @@
         <v>8</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="27" t="s">
         <v>71</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4584,20 +4668,20 @@
         <v>8</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G8" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="27" t="s">
         <v>71</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4608,20 +4692,20 @@
         <v>22</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G9" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="27" t="s">
         <v>71</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4632,20 +4716,20 @@
         <v>23</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4656,20 +4740,20 @@
         <v>23</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="23" t="s">
-        <v>78</v>
+        <v>315</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4680,20 +4764,20 @@
         <v>23</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="38"/>
       <c r="F12" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4704,20 +4788,20 @@
         <v>23</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4728,20 +4812,20 @@
         <v>21</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="24" t="s">
-        <v>82</v>
+        <v>316</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4752,20 +4836,20 @@
         <v>21</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="24" t="s">
-        <v>257</v>
+        <v>317</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4776,20 +4860,20 @@
         <v>21</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>17</v>
+        <v>318</v>
       </c>
       <c r="E16" s="38"/>
       <c r="F16" s="24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G16" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="27" t="s">
         <v>71</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4800,20 +4884,20 @@
         <v>21</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="38"/>
       <c r="F17" s="24" t="s">
-        <v>84</v>
+        <v>319</v>
       </c>
       <c r="G17" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="27" t="s">
         <v>71</v>
-      </c>
-      <c r="H17" s="27" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4824,20 +4908,20 @@
         <v>21</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D18" s="36" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="24" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G18" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="27" t="s">
         <v>71</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4848,20 +4932,20 @@
         <v>21</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D19" s="42" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="31" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G19" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="27" t="s">
         <v>71</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4879,23 +4963,23 @@
         <v>18</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E21" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="F21" s="25" t="s">
         <v>199</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>204</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="27" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4903,16 +4987,16 @@
         <v>19</v>
       </c>
       <c r="B22" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D22" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>198</v>
-      </c>
       <c r="E22" s="45" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="F22" s="48"/>
       <c r="G22" s="43"/>
@@ -4923,16 +5007,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E23" s="45" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F23" s="48"/>
       <c r="G23" s="43"/>
@@ -4943,23 +5027,23 @@
         <v>21</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C24" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="F24" s="25" t="s">
         <v>195</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>200</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="27" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -4976,17 +5060,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="A28" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="13"/>
     <col min="2" max="2" width="16.90625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="39.36328125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="42.26953125" style="13" customWidth="1"/>
     <col min="4" max="4" width="41.26953125" style="13" customWidth="1"/>
     <col min="5" max="5" width="59.453125" style="13" customWidth="1"/>
     <col min="6" max="6" width="44.26953125" style="13" customWidth="1"/>
@@ -5045,20 +5130,20 @@
         <v>8</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E3" s="38"/>
       <c r="F3" s="9" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5069,20 +5154,20 @@
         <v>8</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E4" s="38"/>
       <c r="F4" s="9" t="s">
-        <v>261</v>
+        <v>321</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5093,20 +5178,20 @@
         <v>8</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="9" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5117,20 +5202,20 @@
         <v>8</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E6" s="38"/>
       <c r="F6" s="9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5141,20 +5226,20 @@
         <v>8</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>97</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>102</v>
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5165,20 +5250,20 @@
         <v>8</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5189,20 +5274,20 @@
         <v>22</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="23" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5213,20 +5298,20 @@
         <v>23</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="23" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5237,20 +5322,20 @@
         <v>23</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="23" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5261,20 +5346,20 @@
         <v>23</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="38"/>
       <c r="F12" s="23" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5285,20 +5370,20 @@
         <v>23</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="24" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5309,20 +5394,20 @@
         <v>21</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="24" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5333,20 +5418,20 @@
         <v>21</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="24" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5357,20 +5442,20 @@
         <v>21</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="38"/>
       <c r="F16" s="24" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5381,20 +5466,20 @@
         <v>21</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="38"/>
       <c r="F17" s="24" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5405,20 +5490,20 @@
         <v>21</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D18" s="36" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="24" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5429,20 +5514,20 @@
         <v>21</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D19" s="42" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="31" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5450,23 +5535,23 @@
         <v>18</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>21</v>
+        <v>322</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E20" s="38"/>
       <c r="F20" s="31" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5477,20 +5562,20 @@
         <v>21</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E21" s="38"/>
       <c r="F21" s="31" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5501,20 +5586,20 @@
         <v>21</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E22" s="38"/>
       <c r="F22" s="31" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5525,20 +5610,20 @@
         <v>21</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="31" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5549,20 +5634,20 @@
         <v>21</v>
       </c>
       <c r="C24" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="42" t="s">
         <v>106</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>111</v>
       </c>
       <c r="E24" s="38"/>
       <c r="F24" s="31" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5573,20 +5658,20 @@
         <v>21</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E25" s="38"/>
       <c r="F25" s="31" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5597,20 +5682,20 @@
         <v>21</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E26" s="38"/>
       <c r="F26" s="31" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5621,20 +5706,20 @@
         <v>21</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D27" s="42" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E27" s="38"/>
       <c r="F27" s="31" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5645,20 +5730,20 @@
         <v>21</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E28" s="38"/>
       <c r="F28" s="31" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5669,20 +5754,20 @@
         <v>21</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E29" s="38"/>
       <c r="F29" s="31" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5693,20 +5778,20 @@
         <v>21</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E30" s="38"/>
       <c r="F30" s="31" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5724,23 +5809,23 @@
         <v>29</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="27" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5748,16 +5833,16 @@
         <v>30</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E33" s="45" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="F33" s="48"/>
       <c r="G33" s="43"/>
@@ -5768,16 +5853,16 @@
         <v>31</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E34" s="45" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F34" s="48"/>
       <c r="G34" s="43"/>
@@ -5788,23 +5873,23 @@
         <v>32</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>195</v>
+        <v>320</v>
       </c>
       <c r="D35" s="38" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E35" s="38" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="27" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -5821,10 +5906,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A16" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5890,20 +5976,20 @@
         <v>8</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E3" s="38"/>
       <c r="F3" s="9" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5914,20 +6000,20 @@
         <v>8</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E4" s="38"/>
       <c r="F4" s="9" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5938,20 +6024,20 @@
         <v>8</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="9" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5962,13 +6048,13 @@
         <v>8</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F6" s="46"/>
       <c r="G6" s="43"/>
@@ -5982,20 +6068,20 @@
         <v>8</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>139</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>144</v>
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="9" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6006,20 +6092,20 @@
         <v>8</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="9" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6030,20 +6116,20 @@
         <v>22</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="23" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6054,20 +6140,20 @@
         <v>23</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="23" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6078,20 +6164,20 @@
         <v>23</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="23" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6102,20 +6188,20 @@
         <v>23</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="38"/>
       <c r="F12" s="23" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6126,20 +6212,20 @@
         <v>23</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="24" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6150,20 +6236,20 @@
         <v>21</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="24" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6174,20 +6260,20 @@
         <v>21</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="24" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6198,20 +6284,20 @@
         <v>21</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="38"/>
       <c r="F16" s="24" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6222,20 +6308,20 @@
         <v>21</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="38"/>
       <c r="F17" s="24" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6246,20 +6332,20 @@
         <v>21</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D18" s="36" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="24" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6270,20 +6356,20 @@
         <v>21</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D19" s="42" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="31" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6301,23 +6387,23 @@
         <v>18</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="27" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6325,16 +6411,16 @@
         <v>19</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E22" s="45" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="F22" s="48"/>
       <c r="G22" s="43"/>
@@ -6342,19 +6428,19 @@
     </row>
     <row r="23" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E23" s="45" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F23" s="48"/>
       <c r="G23" s="43"/>
@@ -6374,17 +6460,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A13" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="13"/>
     <col min="2" max="2" width="16.90625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="39.36328125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="43" style="13" customWidth="1"/>
     <col min="4" max="4" width="41.26953125" style="13" customWidth="1"/>
     <col min="5" max="5" width="59.453125" style="13" customWidth="1"/>
     <col min="6" max="6" width="34.26953125" style="13" customWidth="1"/>
@@ -6443,13 +6530,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F3" s="46"/>
       <c r="G3" s="43"/>
@@ -6463,20 +6550,20 @@
         <v>8</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E4" s="38"/>
       <c r="F4" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6487,20 +6574,20 @@
         <v>8</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="9" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6511,20 +6598,20 @@
         <v>8</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E6" s="38"/>
       <c r="F6" s="9" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6535,20 +6622,20 @@
         <v>22</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="23" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6559,20 +6646,20 @@
         <v>23</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="23" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6583,20 +6670,20 @@
         <v>23</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="23" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6607,20 +6694,20 @@
         <v>23</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="23" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6631,20 +6718,20 @@
         <v>23</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="24" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6655,20 +6742,20 @@
         <v>21</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="38"/>
       <c r="F12" s="24" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6679,20 +6766,20 @@
         <v>21</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="24" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6703,20 +6790,20 @@
         <v>21</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="24" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6727,20 +6814,20 @@
         <v>21</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="24" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6751,20 +6838,20 @@
         <v>21</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D16" s="36" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="38"/>
       <c r="F16" s="24" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6775,20 +6862,20 @@
         <v>21</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D17" s="42" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="38"/>
       <c r="F17" s="31" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6806,23 +6893,23 @@
         <v>16</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D19" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="F19" s="25" t="s">
         <v>217</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>222</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="27" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6830,16 +6917,16 @@
         <v>17</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E20" s="45" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="F20" s="48"/>
       <c r="G20" s="43"/>
@@ -6850,16 +6937,16 @@
         <v>18</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E21" s="45" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F21" s="48"/>
       <c r="G21" s="43"/>
@@ -6870,23 +6957,23 @@
         <v>19</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>195</v>
+        <v>320</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="27" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -6903,17 +6990,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="13"/>
     <col min="2" max="2" width="16.90625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="39.36328125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="42.26953125" style="13" customWidth="1"/>
     <col min="4" max="4" width="41.26953125" style="13" customWidth="1"/>
     <col min="5" max="5" width="71.08984375" style="13" customWidth="1"/>
     <col min="6" max="6" width="41.36328125" style="13" customWidth="1"/>
@@ -6972,13 +7060,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F3" s="46"/>
       <c r="G3" s="43"/>
@@ -6992,20 +7080,20 @@
         <v>8</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E4" s="38"/>
       <c r="F4" s="9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7016,20 +7104,20 @@
         <v>8</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="9" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7040,20 +7128,20 @@
         <v>8</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E6" s="38"/>
       <c r="F6" s="9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7064,20 +7152,20 @@
         <v>22</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="23" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7088,20 +7176,20 @@
         <v>23</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="23" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7112,20 +7200,20 @@
         <v>23</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="23" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7136,20 +7224,20 @@
         <v>23</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="23" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7160,20 +7248,20 @@
         <v>23</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="24" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7184,20 +7272,20 @@
         <v>21</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="38"/>
       <c r="F12" s="24" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7208,20 +7296,20 @@
         <v>21</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="24" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7232,20 +7320,20 @@
         <v>21</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="24" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7256,20 +7344,20 @@
         <v>21</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="24" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7280,20 +7368,20 @@
         <v>21</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D16" s="36" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="38"/>
       <c r="F16" s="24" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7304,20 +7392,20 @@
         <v>21</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D17" s="42" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="38"/>
       <c r="F17" s="31" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7335,23 +7423,23 @@
         <v>16</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D19" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="F19" s="25" t="s">
         <v>223</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>228</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="27" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7359,16 +7447,16 @@
         <v>17</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E20" s="45" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="F20" s="48"/>
       <c r="G20" s="43"/>
@@ -7379,16 +7467,16 @@
         <v>18</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E21" s="45" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F21" s="48"/>
       <c r="G21" s="43"/>
@@ -7399,23 +7487,23 @@
         <v>19</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>195</v>
+        <v>320</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="27" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -7432,10 +7520,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A19" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7501,20 +7590,20 @@
         <v>8</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" s="38"/>
       <c r="F3" s="9" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7525,20 +7614,20 @@
         <v>8</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E4" s="38"/>
       <c r="F4" s="9" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7549,20 +7638,20 @@
         <v>8</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7573,13 +7662,13 @@
         <v>8</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F6" s="46"/>
       <c r="G6" s="43"/>
@@ -7593,20 +7682,20 @@
         <v>8</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7617,20 +7706,20 @@
         <v>8</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="9" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7641,20 +7730,20 @@
         <v>22</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="23" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7665,20 +7754,20 @@
         <v>23</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="23" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7689,20 +7778,20 @@
         <v>23</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="23" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7713,20 +7802,20 @@
         <v>23</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="38"/>
       <c r="F12" s="23" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7737,20 +7826,20 @@
         <v>23</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="24" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7761,20 +7850,20 @@
         <v>21</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="24" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7785,20 +7874,20 @@
         <v>21</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="24" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7809,20 +7898,20 @@
         <v>21</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="38"/>
       <c r="F16" s="24" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7833,20 +7922,20 @@
         <v>21</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="38"/>
       <c r="F17" s="24" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7857,20 +7946,20 @@
         <v>21</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D18" s="36" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="24" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7881,20 +7970,20 @@
         <v>21</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D19" s="42" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="31" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7905,20 +7994,20 @@
         <v>21</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E20" s="38"/>
       <c r="F20" s="31" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7936,23 +8025,23 @@
         <v>19</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="27" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7960,16 +8049,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E23" s="45" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="F23" s="48"/>
       <c r="G23" s="43"/>
@@ -7980,16 +8069,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E24" s="45" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="F24" s="48"/>
       <c r="G24" s="43"/>
@@ -8010,10 +8099,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8022,7 +8111,7 @@
     <col min="2" max="2" width="16.90625" style="13" customWidth="1"/>
     <col min="3" max="3" width="39.36328125" style="13" customWidth="1"/>
     <col min="4" max="4" width="41.26953125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="78.7265625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="82.36328125" style="13" customWidth="1"/>
     <col min="6" max="6" width="43.7265625" style="13" customWidth="1"/>
     <col min="7" max="7" width="51.90625" style="13" customWidth="1"/>
     <col min="8" max="8" width="68" style="13" customWidth="1"/>
@@ -8076,23 +8165,23 @@
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="29" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8100,23 +8189,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="29" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8124,23 +8213,23 @@
         <v>3</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G5" s="11"/>
-      <c r="H5" s="27" t="s">
-        <v>37</v>
+      <c r="H5" s="29" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8148,23 +8237,23 @@
         <v>4</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D6" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>234</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>239</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="29" t="s">
-        <v>38</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8181,16 +8270,16 @@
         <v>35</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8207,14 +8296,14 @@
         <v>36</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="11" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8225,20 +8314,20 @@
         <v>13</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>39</v>
+        <v>330</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="37" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8249,20 +8338,20 @@
         <v>13</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>39</v>
+        <v>330</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F10" s="34"/>
       <c r="G10" s="37" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8273,21 +8362,17 @@
         <v>13</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>39</v>
+        <v>330</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="37" t="s">
-        <v>320</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>40</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="E11" s="59" t="s">
+        <v>332</v>
+      </c>
+      <c r="F11" s="60"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="44"/>
     </row>
     <row r="12" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
@@ -8297,20 +8382,20 @@
         <v>13</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>39</v>
+        <v>330</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>319</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>246</v>
+        <v>247</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>328</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="37" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>40</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8321,20 +8406,20 @@
         <v>13</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>39</v>
+        <v>330</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>244</v>
+        <v>308</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>246</v>
+        <v>327</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="37" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>256</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8345,20 +8430,20 @@
         <v>13</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>245</v>
+        <v>327</v>
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="37" t="s">
-        <v>243</v>
+        <v>311</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>40</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8369,18 +8454,20 @@
         <v>13</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="17"/>
+        <v>324</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>238</v>
+      </c>
       <c r="F15" s="34"/>
       <c r="G15" s="37" t="s">
-        <v>42</v>
+        <v>326</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8391,15 +8478,15 @@
         <v>13</v>
       </c>
       <c r="C16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="39" t="s">
         <v>39</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>43</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="34"/>
-      <c r="G16" s="11" t="s">
-        <v>46</v>
+      <c r="G16" s="37" t="s">
+        <v>40</v>
       </c>
       <c r="H16" s="27" t="s">
         <v>49</v>
@@ -8413,18 +8500,18 @@
         <v>13</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="34"/>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="27" t="s">
         <v>47</v>
-      </c>
-      <c r="H17" s="27" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8435,15 +8522,15 @@
         <v>13</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="34"/>
       <c r="G18" s="37" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H18" s="27" t="s">
         <v>50</v>
@@ -8457,22 +8544,18 @@
         <v>13</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="34" t="s">
-        <v>26</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="34"/>
       <c r="G19" s="37" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8486,19 +8569,19 @@
         <v>24</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G20" s="37" t="s">
         <v>25</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8512,19 +8595,19 @@
         <v>24</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="37" t="s">
         <v>25</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8538,19 +8621,45 @@
         <v>24</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G22" s="37" t="s">
         <v>25</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="19">
+        <v>21</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
